--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 3 (24, 30, 57, 49, 53)/Ableson 4 (36, 30, 39, 35, 43)/NCDE_32nodes_Uniform0.05Virtual_Nelson(24, 30, 57, 49, 53)_Ableson(36, 30, 39, 35, 43)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 3 (24, 30, 57, 49, 53)/Ableson 4 (36, 30, 39, 35, 43)/NCDE_32nodes_Uniform0.05Virtual_Nelson(24, 30, 57, 49, 53)_Ableson(36, 30, 39, 35, 43)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.0002094244575713311</v>
+        <v>0.000209991721317872</v>
       </c>
       <c r="E2">
-        <v>0.0002094244575713311</v>
+        <v>0.000209991721317872</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9998945165448448</v>
+        <v>0.9998905564803414</v>
       </c>
       <c r="E3">
-        <v>0.9998945165448448</v>
+        <v>0.9998905564803414</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.001048458251922771</v>
+        <v>0.00105172623047923</v>
       </c>
       <c r="E4">
-        <v>0.001048458251922771</v>
+        <v>0.00105172623047923</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1.04869399629108E-08</v>
+        <v>1.040333716405986E-08</v>
       </c>
       <c r="E5">
-        <v>1.04869399629108E-08</v>
+        <v>1.040333716405986E-08</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.05086601722813252</v>
+        <v>0.05081521290413182</v>
       </c>
       <c r="E6">
-        <v>0.05086601722813252</v>
+        <v>0.05081521290413182</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9909093974447376</v>
+        <v>0.999999999942754</v>
       </c>
       <c r="E7">
-        <v>0.009090602555262395</v>
+        <v>5.72459857295371E-11</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -537,13 +537,13 @@
         <v>12</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.9929037499815552</v>
+        <v>7.302302926020122E-11</v>
       </c>
       <c r="E8">
-        <v>0.007096250018444827</v>
+        <v>0.999999999926977</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -551,13 +551,13 @@
         <v>13</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.9920386241139317</v>
+        <v>0.01007019350147272</v>
       </c>
       <c r="E9">
-        <v>0.007961375886068267</v>
+        <v>0.9899298064985272</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -565,13 +565,13 @@
         <v>14</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.9918381791989974</v>
+        <v>1.627354027690754E-08</v>
       </c>
       <c r="E10">
-        <v>0.008161820801002584</v>
+        <v>0.9999999837264597</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9927556794617411</v>
+        <v>0.9999981542118342</v>
       </c>
       <c r="E11">
-        <v>0.007244320538258853</v>
+        <v>1.845788165755202E-06</v>
       </c>
       <c r="F11">
-        <v>0.9250134229660034</v>
+        <v>5.504566669464111</v>
       </c>
       <c r="G11">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -605,10 +605,10 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>6.915244108081331E-07</v>
+        <v>6.907648414939411E-07</v>
       </c>
       <c r="E12">
-        <v>6.915244108081331E-07</v>
+        <v>6.907648414939411E-07</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.9999999997730495</v>
+        <v>0.9999999997789986</v>
       </c>
       <c r="E13">
-        <v>0.9999999997730495</v>
+        <v>0.9999999997789986</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>8.044416302208999E-05</v>
+        <v>8.075888261925175E-05</v>
       </c>
       <c r="E14">
-        <v>8.044416302208999E-05</v>
+        <v>8.075888261925175E-05</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -647,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>6.858266828774899E-09</v>
+        <v>6.829117625862511E-09</v>
       </c>
       <c r="E15">
-        <v>6.858266828774899E-09</v>
+        <v>6.829117625862511E-09</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0.03313571324060625</v>
+        <v>0.03304493395354943</v>
       </c>
       <c r="E16">
-        <v>0.03313571324060625</v>
+        <v>0.03304493395354943</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -675,10 +675,10 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.9989543446195146</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>0.0010456553804854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -686,13 +686,13 @@
         <v>12</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.9992489924005419</v>
+        <v>7.444714747088096E-17</v>
       </c>
       <c r="E18">
-        <v>0.00075100759945812</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -700,13 +700,13 @@
         <v>13</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.9991388336522302</v>
+        <v>0.0001300040277642591</v>
       </c>
       <c r="E19">
-        <v>0.0008611663477697817</v>
+        <v>0.9998699959722357</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -714,13 +714,13 @@
         <v>14</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.9991118329870836</v>
+        <v>1.528929464234998E-12</v>
       </c>
       <c r="E20">
-        <v>0.0008881670129163854</v>
+        <v>0.9999999999984711</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -731,16 +731,16 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0.9992132517323625</v>
+        <v>0.9999999609086931</v>
       </c>
       <c r="E21">
-        <v>0.0007867482676374715</v>
+        <v>3.909130685819662E-08</v>
       </c>
       <c r="F21">
-        <v>2.224440336227417</v>
+        <v>9.55573844909668</v>
       </c>
       <c r="G21">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
